--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
   <si>
     <t>BULBASAUR</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>120S</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -929,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -942,7 +945,7 @@
     <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -976,7 +979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -993,7 +996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1060,8 +1063,14 @@
       <c r="E7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>42</v>
       </c>

--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
   <si>
     <t>BULBASAUR</t>
   </si>
@@ -590,6 +590,21 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Bug/Flying</t>
+  </si>
+  <si>
+    <t>Normal/Flying</t>
+  </si>
+  <si>
+    <t>Thunder Stone</t>
+  </si>
+  <si>
+    <t>Fire/Flying</t>
   </si>
 </sst>
 </file>
@@ -932,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,6 +976,12 @@
       <c r="E1" t="s">
         <v>54</v>
       </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -978,6 +999,12 @@
       <c r="E2" t="s">
         <v>56</v>
       </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -995,6 +1022,9 @@
       <c r="E3" t="s">
         <v>58</v>
       </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -1012,6 +1042,12 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1029,6 +1065,12 @@
       <c r="E5" t="s">
         <v>62</v>
       </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -1046,6 +1088,9 @@
       <c r="E6" t="s">
         <v>64</v>
       </c>
+      <c r="F6" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -1086,6 +1131,12 @@
       <c r="E8" t="s">
         <v>67</v>
       </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -1103,6 +1154,9 @@
       <c r="E9" t="s">
         <v>68</v>
       </c>
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -1120,6 +1174,12 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
+      <c r="F10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1137,6 +1197,12 @@
       <c r="E11" t="s">
         <v>69</v>
       </c>
+      <c r="F11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -1154,6 +1220,9 @@
       <c r="E12" t="s">
         <v>56</v>
       </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -1171,6 +1240,12 @@
       <c r="E13" t="s">
         <v>72</v>
       </c>
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -1188,6 +1263,12 @@
       <c r="E14" t="s">
         <v>54</v>
       </c>
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1205,6 +1286,9 @@
       <c r="E15" t="s">
         <v>77</v>
       </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1222,6 +1306,12 @@
       <c r="E16" t="s">
         <v>72</v>
       </c>
+      <c r="F16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -1239,6 +1329,12 @@
       <c r="E17" t="s">
         <v>78</v>
       </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -1256,6 +1352,9 @@
       <c r="E18" t="s">
         <v>80</v>
       </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -1273,6 +1372,12 @@
       <c r="E19" t="s">
         <v>85</v>
       </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -1290,6 +1395,9 @@
       <c r="E20" t="s">
         <v>89</v>
       </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -1307,6 +1415,12 @@
       <c r="E21" t="s">
         <v>72</v>
       </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -1324,6 +1438,9 @@
       <c r="E22" t="s">
         <v>77</v>
       </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -1341,6 +1458,12 @@
       <c r="E23" t="s">
         <v>97</v>
       </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -1358,6 +1481,9 @@
       <c r="E24" t="s">
         <v>56</v>
       </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1374,6 +1500,12 @@
       </c>
       <c r="E25" t="s">
         <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="230">
   <si>
     <t>BULBASAUR</t>
   </si>
@@ -605,6 +605,123 @@
   </si>
   <si>
     <t>Fire/Flying</t>
+  </si>
+  <si>
+    <t>MEOWTH</t>
+  </si>
+  <si>
+    <t>PERSIAN</t>
+  </si>
+  <si>
+    <t>PSYDUCK</t>
+  </si>
+  <si>
+    <t>115S</t>
+  </si>
+  <si>
+    <t>52A</t>
+  </si>
+  <si>
+    <t>GOLDUCK</t>
+  </si>
+  <si>
+    <t>MANKEY</t>
+  </si>
+  <si>
+    <t>PRIMEAPE</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>105A</t>
+  </si>
+  <si>
+    <t>GROWLITHE</t>
+  </si>
+  <si>
+    <t>ARCANINE</t>
+  </si>
+  <si>
+    <t>110A</t>
+  </si>
+  <si>
+    <t>POLIWAG</t>
+  </si>
+  <si>
+    <t>POLIWHIRL</t>
+  </si>
+  <si>
+    <t>Water Stone</t>
+  </si>
+  <si>
+    <t>POLIWRATH</t>
+  </si>
+  <si>
+    <t>ABRA</t>
+  </si>
+  <si>
+    <t>KADABRA</t>
+  </si>
+  <si>
+    <t>ALAKAZAM</t>
+  </si>
+  <si>
+    <t>Water/Fighting</t>
+  </si>
+  <si>
+    <t>95D</t>
+  </si>
+  <si>
+    <t>15D</t>
+  </si>
+  <si>
+    <t>25H</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Trade (???)</t>
+  </si>
+  <si>
+    <t>105S</t>
+  </si>
+  <si>
+    <t>MACHOP</t>
+  </si>
+  <si>
+    <t>MACHOKE</t>
+  </si>
+  <si>
+    <t>MACHAMP</t>
+  </si>
+  <si>
+    <t>130A</t>
+  </si>
+  <si>
+    <t>BELLSPROUT</t>
+  </si>
+  <si>
+    <t>WEEPINBELL</t>
+  </si>
+  <si>
+    <t>VICTREEBELL</t>
+  </si>
+  <si>
+    <t>Leaf Stone</t>
+  </si>
+  <si>
+    <t>TENTACOOL</t>
+  </si>
+  <si>
+    <t>TENTACRUEL</t>
+  </si>
+  <si>
+    <t>Water/Poison</t>
+  </si>
+  <si>
+    <t>40A</t>
   </si>
 </sst>
 </file>
@@ -620,12 +737,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -945,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2071,7 +2186,471 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="E52" s="1"/>
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
